--- a/MainProject/CommonFiles/Addstaff.xlsx
+++ b/MainProject/CommonFiles/Addstaff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NANDANA AJITH\Downloads\ictk-main\ictk-main\MainProject\CommonFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb6fc11c124a7ae9/Desktop/Back/ICTK_TestingProject/ictk-main/ictk-main/MainProject/CommonFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977603CD-F937-451E-B8BE-374F89A07BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{977603CD-F937-451E-B8BE-374F89A07BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99317973-5A2D-49CC-A3EF-178773B1183B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="1236" windowWidth="22644" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Index no</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Image</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Anupama</t>
   </si>
   <si>
     <t>Designation</t>
   </si>
   <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>dsadasd</t>
+    <t>Staff Name</t>
+  </si>
+  <si>
+    <t>Office Assistant</t>
+  </si>
+  <si>
+    <t>xyz abc pqr</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +63,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,16 +93,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,45 +383,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
